--- a/data/scenarios/base.xlsx
+++ b/data/scenarios/base.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnka0003\Git repos\eitm01-scenarios\workbooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Regions" sheetId="1" r:id="rId1"/>
-    <sheet name="DemandAndConversions" sheetId="2" r:id="rId2"/>
-    <sheet name="CropProduction" sheetId="3" r:id="rId3"/>
-    <sheet name="CattleHerd" sheetId="4" r:id="rId4"/>
-    <sheet name="FeedMgmt" sheetId="5" r:id="rId5"/>
+    <sheet name="Regions" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="DemandAndConversions" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="CropProduction" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="CattleHerd" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="FeedMgmt" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,337 +24,271 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="107">
-  <si>
-    <t>f_crop</t>
-  </si>
-  <si>
-    <t>f_prod_system</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>val_is</t>
-  </si>
-  <si>
-    <t>y_2020</t>
-  </si>
-  <si>
-    <t>Wheat (add)</t>
-  </si>
-  <si>
-    <t>conventional</t>
-  </si>
-  <si>
-    <t>x0_crops</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Peas (add)</t>
-  </si>
-  <si>
-    <t>f_food</t>
-  </si>
-  <si>
-    <t>f_food_group</t>
-  </si>
-  <si>
-    <t>Bovine meat and products</t>
-  </si>
-  <si>
-    <t>consumption</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>export_demand</t>
-  </si>
-  <si>
-    <t>dairy</t>
-  </si>
-  <si>
-    <t>f_region</t>
-  </si>
-  <si>
-    <t>crop_dm</t>
-  </si>
-  <si>
-    <t>Wheat, spring</t>
-  </si>
-  <si>
-    <t>ag_resid</t>
-  </si>
-  <si>
-    <t>bg_resid</t>
-  </si>
-  <si>
-    <t>ag_resid_N</t>
-  </si>
-  <si>
-    <t>bg_resid_N</t>
-  </si>
-  <si>
-    <t>frac_renew</t>
-  </si>
-  <si>
-    <t>min_GDD5</t>
-  </si>
-  <si>
-    <t>Peas, dry</t>
-  </si>
-  <si>
-    <t>yield</t>
-  </si>
-  <si>
-    <t>Wheat, spring (conventional)</t>
-  </si>
-  <si>
-    <t>Peas, dry (conventional)</t>
-  </si>
-  <si>
-    <t>f_feed</t>
-  </si>
-  <si>
-    <t>share_in_ration</t>
-  </si>
-  <si>
-    <t>ley silage, 1st cut</t>
-  </si>
-  <si>
-    <t>min_share_in_ration</t>
-  </si>
-  <si>
-    <t>ley silage, regrowth</t>
-  </si>
-  <si>
-    <t>other silage</t>
-  </si>
-  <si>
-    <t>maize silage</t>
-  </si>
-  <si>
-    <t>straw</t>
-  </si>
-  <si>
-    <t>grazing</t>
-  </si>
-  <si>
-    <t>wheat</t>
-  </si>
-  <si>
-    <t>barley</t>
-  </si>
-  <si>
-    <t>oats</t>
-  </si>
-  <si>
-    <t>triticale</t>
-  </si>
-  <si>
-    <t>rye</t>
-  </si>
-  <si>
-    <t>peas</t>
-  </si>
-  <si>
-    <t>broad beans</t>
-  </si>
-  <si>
-    <t>rapeseed</t>
-  </si>
-  <si>
-    <t>vegetable oils</t>
-  </si>
-  <si>
-    <t>rapeseed meal</t>
-  </si>
-  <si>
-    <t>rapeseed cake</t>
-  </si>
-  <si>
-    <t>wheat bran</t>
-  </si>
-  <si>
-    <t>wheat bran, fine</t>
-  </si>
-  <si>
-    <t>oat hulls</t>
-  </si>
-  <si>
-    <t>oat bran</t>
-  </si>
-  <si>
-    <t>rye bran</t>
-  </si>
-  <si>
-    <t>wheat distillers grain, dry</t>
-  </si>
-  <si>
-    <t>barley brewers grain</t>
-  </si>
-  <si>
-    <t>maize gluten meal</t>
-  </si>
-  <si>
-    <t>sugar beet molasses</t>
-  </si>
-  <si>
-    <t>sugar beet pulp</t>
-  </si>
-  <si>
-    <t>potatoe protein</t>
-  </si>
-  <si>
-    <t>luzern meal</t>
-  </si>
-  <si>
-    <t>sunflower seed meal</t>
-  </si>
-  <si>
-    <t>palm kern expeller</t>
-  </si>
-  <si>
-    <t>wheat distillers grain, wet</t>
-  </si>
-  <si>
-    <t>whey</t>
-  </si>
-  <si>
-    <t>fish meal</t>
-  </si>
-  <si>
-    <t>soybean protein concentrated</t>
-  </si>
-  <si>
-    <t>whey powder</t>
-  </si>
-  <si>
-    <t>f_species</t>
-  </si>
-  <si>
-    <t>f_crop_prod</t>
-  </si>
-  <si>
-    <t>f_by_prod</t>
-  </si>
-  <si>
-    <t>cattle</t>
-  </si>
-  <si>
-    <t>soybeans</t>
-  </si>
-  <si>
-    <t>share_domestic</t>
-  </si>
-  <si>
-    <t>linseed</t>
-  </si>
-  <si>
-    <t>maize</t>
-  </si>
-  <si>
-    <t>milling by-products from wheat, barley or rye</t>
-  </si>
-  <si>
-    <t>soybean meal</t>
-  </si>
-  <si>
-    <t>soybean protein concentrate</t>
-  </si>
-  <si>
-    <t>palm kernel expeller</t>
-  </si>
-  <si>
-    <t>organic</t>
-  </si>
-  <si>
-    <t>wheat distillers grain</t>
-  </si>
-  <si>
-    <t>milling by-products from oats</t>
-  </si>
-  <si>
-    <t>potatoe offals</t>
-  </si>
-  <si>
-    <t>f_breed</t>
-  </si>
-  <si>
-    <t>f_animal</t>
-  </si>
-  <si>
-    <t>cows</t>
-  </si>
-  <si>
-    <t>max_share_in_ration</t>
-  </si>
-  <si>
-    <t>min_rough</t>
-  </si>
-  <si>
-    <t>f_animal_rations:animal</t>
-  </si>
-  <si>
-    <t>calves, suckling</t>
-  </si>
-  <si>
-    <t>bulls</t>
-  </si>
-  <si>
-    <t>Minimum roughage shares</t>
-  </si>
-  <si>
-    <t>Constrain the ammount of straw</t>
-  </si>
-  <si>
-    <t>breeding bulls</t>
-  </si>
-  <si>
-    <t>heifers</t>
-  </si>
-  <si>
-    <t>steers</t>
-  </si>
-  <si>
-    <t>beef</t>
-  </si>
-  <si>
-    <t>Fixed grazing</t>
-  </si>
-  <si>
-    <t>Refine max DMI intakes</t>
-  </si>
-  <si>
-    <t>calves, bull</t>
-  </si>
-  <si>
-    <t>calves, for slaughter</t>
-  </si>
-  <si>
-    <t>calves, heifer</t>
-  </si>
-  <si>
-    <t>calves, steer</t>
-  </si>
-  <si>
-    <t>max_DMI</t>
-  </si>
-  <si>
-    <t>abs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="85">
+  <si>
+    <t xml:space="preserve">f_crop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_prod_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val_is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat (add)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conventional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x0_crops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peas (add)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_food_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bovine meat and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export_demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crop_dm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat, spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ag_resid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_resid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ag_resid_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_resid_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frac_renew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_GDD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peas, dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat, spring (conventional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peas, dry (conventional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_feed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share_in_ration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ley silage, 1st cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_share_in_ration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ley silage, regrowth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other silage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize silage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triticale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broad beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapeseed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetable oils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapeseed meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapeseed cake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat bran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat bran, fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oat hulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oat bran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rye bran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat distillers grain, dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barley brewers grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize gluten meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugar beet molasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugar beet pulp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potatoe protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luzern meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunflower seed meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palm kern expeller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat distillers grain, wet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fish meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybean protein concentrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whey powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_crop_prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_by_prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share_domestic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linseed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milling by-products from wheat, barley or rye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybean meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybean protein concentrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palm kernel expeller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat distillers grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milling by-products from oats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potatoe offals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,7 +297,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -387,29 +332,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -420,7 +342,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -428,92 +350,121 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -545,7 +496,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -569,7 +520,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -629,31 +580,32 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -683,11 +635,11 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -700,31 +652,39 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -743,7 +703,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -754,11 +714,11 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -769,11 +729,11 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -783,11 +743,11 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -797,14 +757,15 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -812,20 +773,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,14 +816,14 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="n">
         <v>0.86</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,11 +833,11 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="n">
+        <v>0.9625</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -883,11 +847,11 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,11 +861,11 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -911,11 +875,11 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,11 +889,11 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -939,11 +903,11 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="n">
         <v>1015</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,14 +917,14 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="1" t="n">
         <v>0.85</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,11 +934,11 @@
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="1" t="n">
         <v>0.91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,11 +948,11 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1" t="n">
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,11 +962,11 @@
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1">
-        <v>1.18E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,11 +976,11 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,11 +990,11 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,15 +1004,15 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="1" t="n">
         <v>1211</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="n">
         <v>1011</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1057,18 +1021,18 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="1">
-        <v>6580.8013190000001</v>
+      <c r="E19" s="1" t="n">
+        <v>6580.801319</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="1" t="n">
         <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1077,15 +1041,15 @@
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="1">
-        <v>4363.2963120000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="n">
+        <v>4363.296312</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="n">
         <v>1111</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1094,15 +1058,15 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="1">
-        <v>5731.1014080000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="n">
+        <v>5731.101408</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="n">
         <v>1112</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1111,15 +1075,15 @@
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="1">
-        <v>4116.4145520000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="n">
+        <v>4116.414552</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="n">
         <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1128,15 +1092,15 @@
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="1" t="n">
         <v>3591.419382</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="n">
         <v>1121</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1145,15 +1109,15 @@
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="1">
-        <v>6608.9958379999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="n">
+        <v>6608.995838</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="n">
         <v>1122</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1162,15 +1126,15 @@
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="1">
-        <v>4792.6540349999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="n">
+        <v>4792.654035</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="n">
         <v>1123</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1179,15 +1143,15 @@
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="1">
-        <v>5643.3119649999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="n">
+        <v>5643.311965</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="1" t="n">
         <v>1124</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1196,15 +1160,15 @@
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="1">
-        <v>3465.4987580000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="n">
+        <v>3465.498758</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="n">
         <v>1131</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1213,15 +1177,15 @@
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="1">
-        <v>3949.8608979999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="n">
+        <v>3949.860898</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="n">
         <v>1211</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1230,15 +1194,15 @@
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="1">
-        <v>4678.6609079999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="n">
+        <v>4678.660908</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1" t="n">
         <v>1212</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1247,15 +1211,15 @@
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="1">
-        <v>4399.8003239999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="n">
+        <v>4399.800324</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="n">
         <v>1213</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1264,15 +1228,15 @@
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="1">
-        <v>4427.2766739999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="n">
+        <v>4427.276674</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="n">
         <v>1214</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1281,15 +1245,15 @@
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="1">
-        <v>5681.5261929999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="n">
+        <v>5681.526193</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1" t="n">
         <v>1215</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1298,15 +1262,15 @@
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="1">
-        <v>4286.1904560000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="n">
+        <v>4286.190456</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1" t="n">
         <v>1216</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1315,15 +1279,15 @@
       <c r="D34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="1">
-        <v>5833.3502879999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="n">
+        <v>5833.350288</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="n">
         <v>1221</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1332,15 +1296,15 @@
       <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="1">
-        <v>3795.7303750000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="n">
+        <v>3795.730375</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="1" t="n">
         <v>1222</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1349,15 +1313,15 @@
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="1">
-        <v>4235.5824240000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="n">
+        <v>4235.582424</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="1" t="n">
         <v>1311</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1366,15 +1330,15 @@
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="1" t="n">
         <v>4790.513825</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="1" t="n">
         <v>1321</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1383,15 +1347,15 @@
       <c r="D38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="1">
-        <v>5309.7954369999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="n">
+        <v>5309.795437</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="1" t="n">
         <v>1322</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1400,15 +1364,15 @@
       <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="1">
-        <v>4398.2636579999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="n">
+        <v>4398.263658</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1" t="n">
         <v>1331</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1417,15 +1381,15 @@
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="1">
-        <v>4846.8288249999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="n">
+        <v>4846.828825</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="1" t="n">
         <v>1411</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1434,15 +1398,15 @@
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="1">
-        <v>4768.3964159999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="n">
+        <v>4768.396416</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1" t="n">
         <v>1412</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1451,15 +1415,15 @@
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="1">
-        <v>3851.9974120000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="n">
+        <v>3851.997412</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="1" t="n">
         <v>1421</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1468,15 +1432,15 @@
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="1">
-        <v>3646.0912480000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="n">
+        <v>3646.091248</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="1" t="n">
         <v>1511</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1485,15 +1449,15 @@
       <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="1">
-        <v>3689.2429659999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="n">
+        <v>3689.242966</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="1" t="n">
         <v>1512</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1502,15 +1466,15 @@
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="1">
-        <v>4830.1048309999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="n">
+        <v>4830.104831</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="1" t="n">
         <v>1521</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1519,15 +1483,15 @@
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="1">
-        <v>4183.9381069999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="n">
+        <v>4183.938107</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="1" t="n">
         <v>1522</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1536,15 +1500,15 @@
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="1">
-        <v>4388.0539950000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="n">
+        <v>4388.053995</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="1" t="n">
         <v>1611</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1553,15 +1517,15 @@
       <c r="D48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="1">
-        <v>3901.7499330000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="n">
+        <v>3901.749933</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="1" t="n">
         <v>1612</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1570,15 +1534,15 @@
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="1">
-        <v>4819.2771899999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="n">
+        <v>4819.27719</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="1" t="n">
         <v>1613</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1587,15 +1551,15 @@
       <c r="D50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="1">
-        <v>4867.3684190000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="n">
+        <v>4867.368419</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="1" t="n">
         <v>1614</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1604,15 +1568,15 @@
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="1">
-        <v>5169.8448619999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="n">
+        <v>5169.844862</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="1" t="n">
         <v>1615</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1621,15 +1585,15 @@
       <c r="D52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="1" t="n">
         <v>4114.989681</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="1" t="n">
         <v>1616</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1638,15 +1602,15 @@
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="1">
-        <v>5420.9981010000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="n">
+        <v>5420.998101</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="1" t="n">
         <v>1617</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1655,15 +1619,15 @@
       <c r="D54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="1">
-        <v>3819.3141770000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="n">
+        <v>3819.314177</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="1" t="n">
         <v>1621</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1672,15 +1636,15 @@
       <c r="D55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="1">
-        <v>3951.5987399999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="n">
+        <v>3951.59874</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="1" t="n">
         <v>1622</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1689,15 +1653,15 @@
       <c r="D56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="1">
-        <v>5547.4582140000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="n">
+        <v>5547.458214</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="1" t="n">
         <v>1623</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1706,15 +1670,15 @@
       <c r="D57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="1">
-        <v>4120.5852619999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="n">
+        <v>4120.585262</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="1" t="n">
         <v>1711</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1723,15 +1687,15 @@
       <c r="D58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="1">
-        <v>4989.8521220000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="n">
+        <v>4989.852122</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="1" t="n">
         <v>1712</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1740,15 +1704,15 @@
       <c r="D59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="1">
-        <v>3570.5195570000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="n">
+        <v>3570.519557</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="1" t="n">
         <v>1713</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1757,15 +1721,15 @@
       <c r="D60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="1">
-        <v>4134.0620269999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="n">
+        <v>4134.062027</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="1" t="n">
         <v>1721</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1774,15 +1738,15 @@
       <c r="D61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="1">
-        <v>2774.7216210000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="n">
+        <v>2774.721621</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="1" t="n">
         <v>1722</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1791,15 +1755,15 @@
       <c r="D62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="1">
-        <v>4327.8914160000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="n">
+        <v>4327.891416</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="1" t="n">
         <v>1723</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1808,15 +1772,15 @@
       <c r="D63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="1">
-        <v>3046.7885249999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="n">
+        <v>3046.788525</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="1" t="n">
         <v>1724</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1825,15 +1789,15 @@
       <c r="D64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="1">
-        <v>3102.4812579999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="n">
+        <v>3102.481258</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="1" t="n">
         <v>1811</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -1842,15 +1806,15 @@
       <c r="D65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="1">
-        <v>3951.3098289999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="n">
+        <v>3951.309829</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="1" t="n">
         <v>1812</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1859,15 +1823,15 @@
       <c r="D66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="1">
-        <v>5291.4560680000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="n">
+        <v>5291.456068</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="1" t="n">
         <v>1813</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1876,15 +1840,15 @@
       <c r="D67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="1">
-        <v>2871.5533180000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="n">
+        <v>2871.553318</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="1" t="n">
         <v>1821</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1893,15 +1857,15 @@
       <c r="D68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="1">
-        <v>4808.5702199999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="n">
+        <v>4808.57022</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="1" t="n">
         <v>1911</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1910,15 +1874,15 @@
       <c r="D69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="1">
-        <v>4586.1425390000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="n">
+        <v>4586.142539</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="1" t="n">
         <v>1912</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1927,15 +1891,15 @@
       <c r="D70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="1">
-        <v>3498.8905279999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="n">
+        <v>3498.890528</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="1" t="n">
         <v>1921</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1944,15 +1908,15 @@
       <c r="D71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="1">
-        <v>5241.3053239999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="n">
+        <v>5241.305324</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="1" t="n">
         <v>1922</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1961,15 +1925,15 @@
       <c r="D72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="1">
-        <v>4240.8058730000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="n">
+        <v>4240.805873</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1978,15 +1942,15 @@
       <c r="D73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="1">
-        <v>3827.0375509999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="n">
+        <v>3827.037551</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="1" t="n">
         <v>2012</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1995,15 +1959,15 @@
       <c r="D74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="1">
-        <v>3726.1295879999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="n">
+        <v>3726.129588</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2012,15 +1976,15 @@
       <c r="D75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="1">
-        <v>3572.6691940000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="n">
+        <v>3572.669194</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="1" t="n">
         <v>2111</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2029,15 +1993,15 @@
       <c r="D76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="1">
-        <v>4119.6460290000005</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="n">
+        <v>4119.646029</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="1" t="n">
         <v>2121</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2046,15 +2010,15 @@
       <c r="D77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="1">
-        <v>4468.7886079999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="n">
+        <v>4468.788608</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="1" t="n">
         <v>2122</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2063,15 +2027,15 @@
       <c r="D78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="1">
-        <v>2491.6985410000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="n">
+        <v>2491.698541</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="1" t="n">
         <v>2211</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2080,15 +2044,15 @@
       <c r="D79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="1">
-        <v>2494.2113749999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="n">
+        <v>2494.211375</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="1" t="n">
         <v>2212</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2097,15 +2061,15 @@
       <c r="D80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="1">
-        <v>2716.0395669999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="n">
+        <v>2716.039567</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="1" t="n">
         <v>2221</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2114,15 +2078,15 @@
       <c r="D81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="1">
-        <v>3844.0398620000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="n">
+        <v>3844.039862</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="1" t="n">
         <v>2311</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2131,15 +2095,15 @@
       <c r="D82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="1">
-        <v>4509.9752719999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="n">
+        <v>4509.975272</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="1" t="n">
         <v>2312</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2148,15 +2112,15 @@
       <c r="D83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="1">
-        <v>3937.0989770000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="n">
+        <v>3937.098977</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="1" t="n">
         <v>2319</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2165,15 +2129,15 @@
       <c r="D84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="1">
-        <v>3566.0018650000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="n">
+        <v>3566.001865</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="1" t="n">
         <v>2331</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2182,15 +2146,15 @@
       <c r="D85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="1">
-        <v>3729.0873710000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="n">
+        <v>3729.087371</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="1" t="n">
         <v>2411</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2199,15 +2163,15 @@
       <c r="D86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="1">
-        <v>2500.8322349999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="n">
+        <v>2500.832235</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="1" t="n">
         <v>2412</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2216,15 +2180,15 @@
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="1" t="n">
         <v>2781.089864</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="1" t="n">
         <v>2413</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2233,15 +2197,15 @@
       <c r="D88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="1">
-        <v>2990.3488929999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="n">
+        <v>2990.348893</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="1" t="n">
         <v>2414</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2250,15 +2214,15 @@
       <c r="D89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="1">
-        <v>2633.9488940000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="n">
+        <v>2633.948894</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="1" t="n">
         <v>2415</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2267,15 +2231,15 @@
       <c r="D90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="1">
-        <v>2824.6203609999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="n">
+        <v>2824.620361</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="1" t="n">
         <v>2419</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -2284,15 +2248,15 @@
       <c r="D91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="1">
-        <v>2998.1770670000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="n">
+        <v>2998.177067</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="1" t="n">
         <v>2511</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -2301,15 +2265,15 @@
       <c r="D92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="1">
-        <v>2322.0950600000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="n">
+        <v>2322.09506</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="1" t="n">
         <v>2512</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -2318,15 +2282,15 @@
       <c r="D93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="1">
-        <v>1900.2494409999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="n">
+        <v>1900.249441</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="1" t="n">
         <v>2519</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -2335,15 +2299,15 @@
       <c r="D94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="1">
-        <v>2244.4889790000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="n">
+        <v>2244.488979</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="1" t="n">
         <v>2521</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -2352,15 +2316,15 @@
       <c r="D95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="1" t="n">
         <v>2324.911435</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="1" t="n">
         <v>311</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2369,15 +2333,15 @@
       <c r="D96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="1">
-        <v>4351.1843520000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="n">
+        <v>4351.184352</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="1" t="n">
         <v>312</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2386,15 +2350,15 @@
       <c r="D97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="1">
-        <v>4248.8548110000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="n">
+        <v>4248.854811</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="1" t="n">
         <v>321</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2403,15 +2367,15 @@
       <c r="D98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="1">
-        <v>4540.1699040000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="n">
+        <v>4540.169904</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="1" t="n">
         <v>322</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -2420,15 +2384,15 @@
       <c r="D99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="1">
-        <v>2676.2899860000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="n">
+        <v>2676.289986</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="1" t="n">
         <v>411</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -2437,15 +2401,15 @@
       <c r="D100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="1">
-        <v>4068.5289499999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="n">
+        <v>4068.52895</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="1" t="n">
         <v>421</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -2454,15 +2418,15 @@
       <c r="D101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="1">
-        <v>4327.3710780000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="n">
+        <v>4327.371078</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="1" t="n">
         <v>422</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2471,15 +2435,15 @@
       <c r="D102" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="1" t="n">
         <v>4667.828888</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="1" t="n">
         <v>431</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -2488,15 +2452,15 @@
       <c r="D103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="1">
-        <v>4386.8724240000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="n">
+        <v>4386.872424</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="1" t="n">
         <v>511</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -2505,15 +2469,15 @@
       <c r="D104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="1">
-        <v>4071.9530420000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="1" t="n">
+        <v>4071.953042</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="1" t="n">
         <v>512</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -2522,15 +2486,15 @@
       <c r="D105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="1">
-        <v>3286.5993469999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="n">
+        <v>3286.599347</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="1" t="n">
         <v>513</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -2539,15 +2503,15 @@
       <c r="D106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="1">
-        <v>6549.1697469999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="1" t="n">
+        <v>6549.169747</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="1" t="n">
         <v>514</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -2556,15 +2520,15 @@
       <c r="D107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="1">
-        <v>4817.3715309999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="n">
+        <v>4817.371531</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="1" t="n">
         <v>515</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -2573,15 +2537,15 @@
       <c r="D108" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="1">
-        <v>4445.8103469999996</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="n">
+        <v>4445.810347</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="1" t="n">
         <v>521</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -2590,15 +2554,15 @@
       <c r="D109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="1">
-        <v>3735.3267740000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="n">
+        <v>3735.326774</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="1" t="n">
         <v>611</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -2607,15 +2571,15 @@
       <c r="D110" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="1">
-        <v>4059.9552180000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="n">
+        <v>4059.955218</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="1" t="n">
         <v>612</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -2624,15 +2588,15 @@
       <c r="D111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="1">
-        <v>5303.3991420000002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="n">
+        <v>5303.399142</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="1" t="n">
         <v>621</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -2641,15 +2605,15 @@
       <c r="D112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="1">
-        <v>5018.8145729999997</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="n">
+        <v>5018.814573</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="1" t="n">
         <v>622</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -2658,15 +2622,15 @@
       <c r="D113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="1">
-        <v>3973.4407030000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="n">
+        <v>3973.440703</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="1" t="n">
         <v>711</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -2675,15 +2639,15 @@
       <c r="D114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="1">
-        <v>5144.0852839999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E114" s="1" t="n">
+        <v>5144.085284</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="1" t="n">
         <v>731</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -2692,15 +2656,15 @@
       <c r="D115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="1">
-        <v>4956.9122349999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E115" s="1" t="n">
+        <v>4956.912235</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="1" t="n">
         <v>811</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -2709,15 +2673,15 @@
       <c r="D116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="1">
-        <v>4435.1009899999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E116" s="1" t="n">
+        <v>4435.10099</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="1" t="n">
         <v>812</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -2726,15 +2690,15 @@
       <c r="D117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="1">
-        <v>4573.9413789999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E117" s="1" t="n">
+        <v>4573.941379</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="1" t="n">
         <v>813</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -2743,15 +2707,15 @@
       <c r="D118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="1">
-        <v>4960.9907499999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E118" s="1" t="n">
+        <v>4960.99075</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="1" t="n">
         <v>814</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -2760,15 +2724,15 @@
       <c r="D119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="1">
-        <v>4193.1195109999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E119" s="1" t="n">
+        <v>4193.119511</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="1" t="n">
         <v>821</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -2777,15 +2741,15 @@
       <c r="D120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="1" t="n">
         <v>4089.7165</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="1" t="n">
         <v>831</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -2794,15 +2758,15 @@
       <c r="D121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="1">
-        <v>4390.6362010000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E121" s="1" t="n">
+        <v>4390.636201</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="1" t="n">
         <v>911</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -2811,15 +2775,15 @@
       <c r="D122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="1" t="n">
         <v>3487.397164</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="1" t="n">
         <v>912</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -2828,15 +2792,15 @@
       <c r="D123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="1">
-        <v>4325.4858119999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="n">
+        <v>4325.485812</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="1" t="n">
         <v>913</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -2845,15 +2809,15 @@
       <c r="D124" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="1" t="n">
         <v>3776.037781</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="1" t="n">
         <v>1011</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -2862,18 +2826,18 @@
       <c r="D126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="1">
-        <v>3888.4574689999999</v>
+      <c r="E126" s="1" t="n">
+        <v>3888.457469</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="1" t="n">
         <v>111</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -2882,15 +2846,15 @@
       <c r="D127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E127" s="1">
-        <v>2586.7477829999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E127" s="1" t="n">
+        <v>2586.747783</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="1" t="n">
         <v>1111</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -2899,15 +2863,15 @@
       <c r="D128" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E128" s="1">
-        <v>3794.3967299999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E128" s="1" t="n">
+        <v>3794.39673</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="1" t="n">
         <v>1112</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -2916,15 +2880,15 @@
       <c r="D129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="1" t="n">
         <v>3299.799638</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="1" t="n">
         <v>112</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -2933,15 +2897,15 @@
       <c r="D130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="1">
-        <v>2383.8385790000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E130" s="1" t="n">
+        <v>2383.838579</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="1" t="n">
         <v>1121</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -2950,15 +2914,15 @@
       <c r="D131" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="1">
-        <v>4457.1875700000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E131" s="1" t="n">
+        <v>4457.18757</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="1" t="n">
         <v>1122</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -2967,15 +2931,15 @@
       <c r="D132" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E132" s="1">
-        <v>3842.2469959999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E132" s="1" t="n">
+        <v>3842.246996</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="1" t="n">
         <v>1123</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -2984,15 +2948,15 @@
       <c r="D133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E133" s="1">
-        <v>3976.7450399999998</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E133" s="1" t="n">
+        <v>3976.74504</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="1" t="n">
         <v>1124</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -3001,15 +2965,15 @@
       <c r="D134" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E134" s="1">
-        <v>2731.4464269999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E134" s="1" t="n">
+        <v>2731.446427</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="1" t="n">
         <v>1131</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -3018,15 +2982,15 @@
       <c r="D135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E135" s="1">
-        <v>2761.6424670000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E135" s="1" t="n">
+        <v>2761.642467</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="1" t="n">
         <v>1211</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -3035,15 +2999,15 @@
       <c r="D136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="1">
-        <v>4939.5699770000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E136" s="1" t="n">
+        <v>4939.569977</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="1" t="n">
         <v>1212</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -3052,15 +3016,15 @@
       <c r="D137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E137" s="1">
-        <v>4162.3264749999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E137" s="1" t="n">
+        <v>4162.326475</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="1" t="n">
         <v>1213</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -3069,15 +3033,15 @@
       <c r="D138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="1">
-        <v>3549.3257760000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E138" s="1" t="n">
+        <v>3549.325776</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="1" t="n">
         <v>1214</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -3086,15 +3050,15 @@
       <c r="D139" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E139" s="1">
-        <v>4411.9238059999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E139" s="1" t="n">
+        <v>4411.923806</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="1" t="n">
         <v>1215</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -3103,15 +3067,15 @@
       <c r="D140" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="1" t="n">
         <v>3692.876573</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="1" t="n">
         <v>1216</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -3120,15 +3084,15 @@
       <c r="D141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E141" s="1">
-        <v>4197.8908609999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E141" s="1" t="n">
+        <v>4197.890861</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="1" t="n">
         <v>1221</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -3137,15 +3101,15 @@
       <c r="D142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E142" s="1">
-        <v>3043.0182370000002</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E142" s="1" t="n">
+        <v>3043.018237</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="1" t="n">
         <v>1222</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -3154,15 +3118,15 @@
       <c r="D143" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E143" s="1">
-        <v>4136.4614659999997</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E143" s="1" t="n">
+        <v>4136.461466</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="1" t="n">
         <v>1311</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -3171,15 +3135,15 @@
       <c r="D144" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="1" t="n">
         <v>3434.871666</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="1" t="n">
         <v>1321</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -3188,15 +3152,15 @@
       <c r="D145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E145" s="1">
-        <v>3513.5749420000002</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E145" s="1" t="n">
+        <v>3513.574942</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="1" t="n">
         <v>1322</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -3205,15 +3169,15 @@
       <c r="D146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="1">
-        <v>2702.7646599999998</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E146" s="1" t="n">
+        <v>2702.76466</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="1" t="n">
         <v>1331</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -3222,15 +3186,15 @@
       <c r="D147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="1">
-        <v>3050.8545600000002</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E147" s="1" t="n">
+        <v>3050.85456</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="1" t="n">
         <v>1411</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -3239,15 +3203,15 @@
       <c r="D148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E148" s="1">
-        <v>3322.3398229999998</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E148" s="1" t="n">
+        <v>3322.339823</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="1" t="n">
         <v>1412</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -3256,15 +3220,15 @@
       <c r="D149" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E149" s="1">
-        <v>2386.8542809999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E149" s="1" t="n">
+        <v>2386.854281</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="1" t="n">
         <v>1421</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -3273,15 +3237,15 @@
       <c r="D150" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E150" s="1">
-        <v>2540.3832010000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E150" s="1" t="n">
+        <v>2540.383201</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="1" t="n">
         <v>1511</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -3290,15 +3254,15 @@
       <c r="D151" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E151" s="1">
-        <v>2564.8828619999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E151" s="1" t="n">
+        <v>2564.882862</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="1" t="n">
         <v>1512</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -3307,15 +3271,15 @@
       <c r="D152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="1" t="n">
         <v>3075.369792</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="1" t="n">
         <v>1521</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -3324,15 +3288,15 @@
       <c r="D153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="1" t="n">
         <v>2858.163798</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="1" t="n">
         <v>1522</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -3341,15 +3305,15 @@
       <c r="D154" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="1">
-        <v>2464.2692870000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E154" s="1" t="n">
+        <v>2464.269287</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="1" t="n">
         <v>1611</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -3358,15 +3322,15 @@
       <c r="D155" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E155" s="1">
-        <v>2190.4740379999998</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E155" s="1" t="n">
+        <v>2190.474038</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="1" t="n">
         <v>1612</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -3375,15 +3339,15 @@
       <c r="D156" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="1" t="n">
         <v>3407.591727</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="1" t="n">
         <v>1613</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -3392,15 +3356,15 @@
       <c r="D157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="1" t="n">
         <v>3391.297728</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="1" t="n">
         <v>1614</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -3409,15 +3373,15 @@
       <c r="D158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E158" s="1">
-        <v>2618.7572129999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E158" s="1" t="n">
+        <v>2618.757213</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="1" t="n">
         <v>1615</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -3426,15 +3390,15 @@
       <c r="D159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E159" s="1">
-        <v>4564.2137359999997</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E159" s="1" t="n">
+        <v>4564.213736</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="1" t="n">
         <v>1616</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -3443,15 +3407,15 @@
       <c r="D160" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E160" s="1">
-        <v>3455.3631270000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E160" s="1" t="n">
+        <v>3455.363127</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="1" t="n">
         <v>1617</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -3460,15 +3424,15 @@
       <c r="D161" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="1">
-        <v>2674.8892310000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E161" s="1" t="n">
+        <v>2674.889231</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="1" t="n">
         <v>1621</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -3477,15 +3441,15 @@
       <c r="D162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E162" s="1">
-        <v>3404.9120349999998</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E162" s="1" t="n">
+        <v>3404.912035</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="1" t="n">
         <v>1622</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -3494,15 +3458,15 @@
       <c r="D163" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E163" s="1">
-        <v>3202.0342369999998</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E163" s="1" t="n">
+        <v>3202.034237</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="1" t="n">
         <v>1623</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -3511,15 +3475,15 @@
       <c r="D164" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="1">
-        <v>3852.5313030000002</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E164" s="1" t="n">
+        <v>3852.531303</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="1" t="n">
         <v>1711</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -3528,15 +3492,15 @@
       <c r="D165" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E165" s="1">
-        <v>2153.4415949999998</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E165" s="1" t="n">
+        <v>2153.441595</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="1" t="n">
         <v>1712</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -3545,15 +3509,15 @@
       <c r="D166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E166" s="1">
-        <v>1763.3248679999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E166" s="1" t="n">
+        <v>1763.324868</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="1" t="n">
         <v>1713</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -3562,15 +3526,15 @@
       <c r="D167" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="1" t="n">
         <v>1962.83905</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="1" t="n">
         <v>1721</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -3579,15 +3543,15 @@
       <c r="D168" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E168" s="1">
-        <v>1544.7648099999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E168" s="1" t="n">
+        <v>1544.76481</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="1" t="n">
         <v>1722</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -3596,15 +3560,15 @@
       <c r="D169" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E169" s="1">
-        <v>2244.4623339999998</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E169" s="1" t="n">
+        <v>2244.462334</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="1" t="n">
         <v>1723</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -3613,15 +3577,15 @@
       <c r="D170" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="1" t="n">
         <v>1617.737421</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="1" t="n">
         <v>1724</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -3630,15 +3594,15 @@
       <c r="D171" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E171" s="1">
-        <v>1638.7340529999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E171" s="1" t="n">
+        <v>1638.734053</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="1" t="n">
         <v>1811</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -3647,15 +3611,15 @@
       <c r="D172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="1" t="n">
         <v>3065.723289</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="1" t="n">
         <v>1812</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -3664,15 +3628,15 @@
       <c r="D173" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E173" s="1">
-        <v>3381.1849350000002</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E173" s="1" t="n">
+        <v>3381.184935</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="1" t="n">
         <v>1813</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -3681,15 +3645,15 @@
       <c r="D174" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="1" t="n">
         <v>1921.836061</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="1" t="n">
         <v>1821</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -3698,15 +3662,15 @@
       <c r="D175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="1" t="n">
         <v>2917.197087</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="1" t="n">
         <v>1911</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -3715,15 +3679,15 @@
       <c r="D176" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E176" s="1">
-        <v>2830.1014030000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E176" s="1" t="n">
+        <v>2830.101403</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="1" t="n">
         <v>1912</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -3732,15 +3696,15 @@
       <c r="D177" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E177" s="1">
-        <v>2552.7039650000002</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E177" s="1" t="n">
+        <v>2552.703965</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="1" t="n">
         <v>1921</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -3749,15 +3713,15 @@
       <c r="D178" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178" s="1" t="n">
         <v>3228.183121</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="1" t="n">
         <v>1922</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -3766,15 +3730,15 @@
       <c r="D179" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E179" s="1">
-        <v>2869.4576010000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E179" s="1" t="n">
+        <v>2869.457601</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -3783,15 +3747,15 @@
       <c r="D180" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E180" s="1">
-        <v>2763.3789310000002</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E180" s="1" t="n">
+        <v>2763.378931</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="1" t="n">
         <v>2012</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -3800,15 +3764,15 @@
       <c r="D181" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E181" s="1">
-        <v>2687.6535279999998</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E181" s="1" t="n">
+        <v>2687.653528</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -3817,15 +3781,15 @@
       <c r="D182" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E182" s="1">
-        <v>2461.9710920000002</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E182" s="1" t="n">
+        <v>2461.971092</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="1" t="n">
         <v>2111</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -3834,15 +3798,15 @@
       <c r="D183" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E183" s="1">
-        <v>2453.8319499999998</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E183" s="1" t="n">
+        <v>2453.83195</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="1" t="n">
         <v>2121</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -3851,15 +3815,15 @@
       <c r="D184" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E184" s="1">
-        <v>2558.3163089999998</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E184" s="1" t="n">
+        <v>2558.316309</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="1" t="n">
         <v>2122</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -3868,15 +3832,15 @@
       <c r="D185" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185" s="1" t="n">
         <v>1532.976013</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="1" t="n">
         <v>2211</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -3885,15 +3849,15 @@
       <c r="D186" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E186" s="1">
-        <v>1394.7935649999999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E186" s="1" t="n">
+        <v>1394.793565</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="1" t="n">
         <v>2212</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -3902,15 +3866,15 @@
       <c r="D187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E187" s="1">
-        <v>1524.5555099999999</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E187" s="1" t="n">
+        <v>1524.55551</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="1" t="n">
         <v>2221</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -3919,15 +3883,15 @@
       <c r="D188" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E188" s="1">
-        <v>2483.7236979999998</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E188" s="1" t="n">
+        <v>2483.723698</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="1" t="n">
         <v>2311</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -3936,15 +3900,15 @@
       <c r="D189" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E189" s="1">
-        <v>2135.8253669999999</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E189" s="1" t="n">
+        <v>2135.825367</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="1" t="n">
         <v>2312</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -3953,15 +3917,15 @@
       <c r="D190" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E190" s="1">
-        <v>1860.7110459999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E190" s="1" t="n">
+        <v>1860.711046</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="1" t="n">
         <v>2319</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -3970,15 +3934,15 @@
       <c r="D191" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E191" s="1">
-        <v>2113.1993729999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E191" s="1" t="n">
+        <v>2113.199373</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="1" t="n">
         <v>2331</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -3987,15 +3951,15 @@
       <c r="D192" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E192" s="1">
-        <v>2137.1482850000002</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E192" s="1" t="n">
+        <v>2137.148285</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="1" t="n">
         <v>2411</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -4004,15 +3968,15 @@
       <c r="D193" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="1" t="n">
         <v>1859.450229</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="1" t="n">
         <v>2412</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -4021,15 +3985,15 @@
       <c r="D194" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E194" s="1">
-        <v>2067.8309049999998</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E194" s="1" t="n">
+        <v>2067.830905</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="1" t="n">
         <v>2413</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -4038,15 +4002,15 @@
       <c r="D195" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E195" s="1">
-        <v>2223.4218089999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E195" s="1" t="n">
+        <v>2223.421809</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="1" t="n">
         <v>2414</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -4055,15 +4019,15 @@
       <c r="D196" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E196" s="1">
-        <v>1955.9362739999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E196" s="1" t="n">
+        <v>1955.936274</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="1" t="n">
         <v>2415</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -4072,15 +4036,15 @@
       <c r="D197" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E197" s="1">
-        <v>2072.2581890000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E197" s="1" t="n">
+        <v>2072.258189</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="1" t="n">
         <v>2419</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -4089,15 +4053,15 @@
       <c r="D198" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E198" s="1">
-        <v>2072.6931199999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E198" s="1" t="n">
+        <v>2072.69312</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="1" t="n">
         <v>2511</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -4106,15 +4070,15 @@
       <c r="D199" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E199" s="1">
-        <v>1588.5556549999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E199" s="1" t="n">
+        <v>1588.555655</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="1" t="n">
         <v>2512</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -4123,15 +4087,15 @@
       <c r="D200" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E200" s="1" t="n">
         <v>1298.906461</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="1" t="n">
         <v>2519</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -4140,15 +4104,15 @@
       <c r="D201" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E201" s="1">
-        <v>1551.6591370000001</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E201" s="1" t="n">
+        <v>1551.659137</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="1" t="n">
         <v>2521</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -4157,15 +4121,15 @@
       <c r="D202" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202" s="1" t="n">
         <v>1607.256312</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="1" t="n">
         <v>311</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -4174,15 +4138,15 @@
       <c r="D203" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E203" s="1">
-        <v>3419.7805669999998</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E203" s="1" t="n">
+        <v>3419.780567</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="1" t="n">
         <v>312</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -4191,15 +4155,15 @@
       <c r="D204" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E204" s="1">
-        <v>2634.9510449999998</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E204" s="1" t="n">
+        <v>2634.951045</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="1" t="n">
         <v>321</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -4208,15 +4172,15 @@
       <c r="D205" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E205" s="1">
-        <v>3276.1385300000002</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E205" s="1" t="n">
+        <v>3276.13853</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="1" t="n">
         <v>322</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -4225,15 +4189,15 @@
       <c r="D206" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E206" s="1">
-        <v>1795.6843349999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E206" s="1" t="n">
+        <v>1795.684335</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="1" t="n">
         <v>411</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -4242,15 +4206,15 @@
       <c r="D207" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E207" s="1">
-        <v>3118.2268290000002</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E207" s="1" t="n">
+        <v>3118.226829</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="1" t="n">
         <v>421</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -4259,15 +4223,15 @@
       <c r="D208" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E208" s="1">
-        <v>2839.2598840000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E208" s="1" t="n">
+        <v>2839.259884</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="1" t="n">
         <v>422</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -4276,15 +4240,15 @@
       <c r="D209" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E209" s="1">
-        <v>2691.0802370000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E209" s="1" t="n">
+        <v>2691.080237</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="1" t="n">
         <v>431</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -4293,15 +4257,15 @@
       <c r="D210" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E210" s="1">
-        <v>2823.1910339999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E210" s="1" t="n">
+        <v>2823.191034</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="1" t="n">
         <v>511</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -4310,15 +4274,15 @@
       <c r="D211" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E211" s="1">
-        <v>2843.0901159999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E211" s="1" t="n">
+        <v>2843.090116</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="1" t="n">
         <v>512</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -4327,15 +4291,15 @@
       <c r="D212" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E212" s="1">
-        <v>2302.9555700000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E212" s="1" t="n">
+        <v>2302.95557</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="1" t="n">
         <v>513</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -4344,15 +4308,15 @@
       <c r="D213" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E213" s="1">
-        <v>4461.5705159999998</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E213" s="1" t="n">
+        <v>4461.570516</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="1" t="n">
         <v>514</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -4361,15 +4325,15 @@
       <c r="D214" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214" s="1" t="n">
         <v>3923.613335</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="1" t="n">
         <v>515</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -4378,15 +4342,15 @@
       <c r="D215" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="1">
-        <v>2870.8595559999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E215" s="1" t="n">
+        <v>2870.859556</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="1" t="n">
         <v>521</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -4395,15 +4359,15 @@
       <c r="D216" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E216" s="1">
-        <v>2595.4859499999998</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E216" s="1" t="n">
+        <v>2595.48595</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="1" t="n">
         <v>611</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -4412,15 +4376,15 @@
       <c r="D217" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E217" s="1">
-        <v>1968.8892510000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E217" s="1" t="n">
+        <v>1968.889251</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="1" t="n">
         <v>612</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -4429,15 +4393,15 @@
       <c r="D218" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E218" s="1">
-        <v>2539.9441959999999</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E218" s="1" t="n">
+        <v>2539.944196</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="1" t="n">
         <v>621</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -4446,15 +4410,15 @@
       <c r="D219" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E219" s="1">
-        <v>2826.0859799999998</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E219" s="1" t="n">
+        <v>2826.08598</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="1" t="n">
         <v>622</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -4463,15 +4427,15 @@
       <c r="D220" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E220" s="1">
-        <v>2006.3318790000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E220" s="1" t="n">
+        <v>2006.331879</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="1" t="n">
         <v>711</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -4480,15 +4444,15 @@
       <c r="D221" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E221" s="1">
-        <v>3229.9204110000001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E221" s="1" t="n">
+        <v>3229.920411</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="1" t="n">
         <v>731</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -4497,15 +4461,15 @@
       <c r="D222" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E222" s="1">
-        <v>3189.7659960000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E222" s="1" t="n">
+        <v>3189.765996</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="1" t="n">
         <v>811</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -4514,15 +4478,15 @@
       <c r="D223" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E223" s="1">
-        <v>3815.0625519999999</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E223" s="1" t="n">
+        <v>3815.062552</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="1" t="n">
         <v>812</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -4531,15 +4495,15 @@
       <c r="D224" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E224" s="1">
-        <v>3518.2958239999998</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E224" s="1" t="n">
+        <v>3518.295824</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225" s="1" t="n">
         <v>813</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -4548,15 +4512,15 @@
       <c r="D225" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E225" s="1">
-        <v>3721.7534390000001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E225" s="1" t="n">
+        <v>3721.753439</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226" s="1" t="n">
         <v>814</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -4565,15 +4529,15 @@
       <c r="D226" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E226" s="1">
-        <v>3291.9987679999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E226" s="1" t="n">
+        <v>3291.998768</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227" s="1" t="n">
         <v>821</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -4582,15 +4546,15 @@
       <c r="D227" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E227" s="1">
-        <v>2606.4463049999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E227" s="1" t="n">
+        <v>2606.446305</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228" s="1" t="n">
         <v>831</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -4599,15 +4563,15 @@
       <c r="D228" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E228" s="1">
-        <v>3102.5591359999999</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E228" s="1" t="n">
+        <v>3102.559136</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="1" t="n">
         <v>911</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -4616,15 +4580,15 @@
       <c r="D229" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E229" s="1">
-        <v>4055.3801549999998</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E229" s="1" t="n">
+        <v>4055.380155</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230" s="1" t="n">
         <v>912</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -4633,15 +4597,15 @@
       <c r="D230" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E230" s="1">
-        <v>3991.6130819999998</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="1" t="n">
+        <v>3991.613082</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231" s="1" t="n">
         <v>913</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -4650,1298 +4614,791 @@
       <c r="D231" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E231" s="1">
-        <v>3752.4361220000001</v>
+      <c r="E231" s="1" t="n">
+        <v>3752.436122</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="10.16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>90</v>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
+      <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="4" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="J32" s="1" t="s">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J33" s="1" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J34" s="1" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J35" s="1" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="1" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J37" s="1" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J38" s="1" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J39" s="1" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41">
-        <v>0.75</v>
-      </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="E47"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="12">
-        <v>6.6079520088655128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="13">
-        <v>50.052481882315824</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="13">
-        <v>37.985802806201164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="13">
-        <v>38.614788214420173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="13">
-        <v>58.050981669759572</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="13">
-        <v>50.052481882315824</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="13">
-        <v>30.425854259446911</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="13">
-        <v>30.282083494235561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" s="10">
-        <v>7.84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G62" s="10">
-        <v>8.67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G63" s="10">
-        <v>5.21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G64" s="10">
-        <v>7.54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G65" s="10">
-        <v>4.47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" s="10">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" s="10">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="10">
-        <v>19.190000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G69" s="10">
-        <v>7.49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G70" s="10">
-        <v>8.3800000000000008</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G71" s="10">
-        <v>8.67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G72" s="10">
-        <v>8.01</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="10">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G74" s="10">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G75" s="10">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G76" s="10">
-        <v>5.84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G77" s="10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G78" s="10">
-        <v>10.77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G79" s="10">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G80" s="10">
-        <v>7.8</v>
-      </c>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+      <c r="B46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+      <c r="B48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+      <c r="B54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+      <c r="B55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+      <c r="B57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+      <c r="B59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0"/>
+      <c r="B61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0"/>
+      <c r="B62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0"/>
+      <c r="B63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0"/>
+      <c r="B64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0"/>
+      <c r="B65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0"/>
+      <c r="B66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0"/>
+      <c r="B67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0"/>
+      <c r="B68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0"/>
+      <c r="B69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0"/>
+      <c r="B71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0"/>
+      <c r="B72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0"/>
+      <c r="B73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0"/>
+      <c r="B74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0"/>
+      <c r="B75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0"/>
+      <c r="B76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0"/>
+      <c r="B78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0"/>
+      <c r="B79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0"/>
+      <c r="B80" s="0"/>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="44.42578125" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="44.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -5964,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -5979,11 +5436,11 @@
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -5998,11 +5455,11 @@
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -6017,11 +5474,11 @@
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -6030,7 +5487,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6039,7 +5496,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -6052,12 +5509,12 @@
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -6070,12 +5527,12 @@
       <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -6088,12 +5545,12 @@
       <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -6106,12 +5563,12 @@
       <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -6124,12 +5581,12 @@
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -6142,12 +5599,12 @@
       <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -6160,12 +5617,12 @@
       <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -6178,12 +5635,12 @@
       <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -6196,19 +5653,19 @@
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -6224,12 +5681,12 @@
       <c r="F17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -6245,12 +5702,12 @@
       <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -6266,12 +5723,12 @@
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -6287,12 +5744,12 @@
       <c r="F20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -6308,12 +5765,12 @@
       <c r="F21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="n">
         <v>100</v>
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="5" t="s">
         <v>65</v>
       </c>
@@ -6323,12 +5780,12 @@
       <c r="F23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -6341,11 +5798,11 @@
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -6358,11 +5815,11 @@
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -6375,12 +5832,17 @@
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="1" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/scenarios/base.xlsx
+++ b/data/scenarios/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilhelmwanecek/dev/exjobb/eitm01-scenarios/data/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF422DB-0181-E74D-A7EC-0021FDD4500F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A505B4A-FDA6-3F4A-99EC-E4DBB630B34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="29400" windowHeight="18360" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="141">
   <si>
     <t>f_crop</t>
   </si>
@@ -238,12 +238,6 @@
     <t>sunflower seed meal</t>
   </si>
   <si>
-    <t>palm kern expeller</t>
-  </si>
-  <si>
-    <t>wheat distillers grain, wet</t>
-  </si>
-  <si>
     <t>Minimum roughage shares</t>
   </si>
   <si>
@@ -259,13 +253,7 @@
     <t>cows</t>
   </si>
   <si>
-    <t>soybean protein concentrated</t>
-  </si>
-  <si>
     <t>calves, suckling</t>
-  </si>
-  <si>
-    <t>whey powder</t>
   </si>
   <si>
     <t>bulls</t>
@@ -4800,10 +4788,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5035,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>51</v>
       </c>
@@ -5049,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>52</v>
       </c>
@@ -5063,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>53</v>
       </c>
@@ -5077,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
@@ -5092,7 +5080,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>55</v>
       </c>
@@ -5106,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>56</v>
       </c>
@@ -5120,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>57</v>
       </c>
@@ -5134,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>58</v>
       </c>
@@ -5148,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>59</v>
       </c>
@@ -5162,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>60</v>
       </c>
@@ -5176,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>61</v>
       </c>
@@ -5190,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>62</v>
       </c>
@@ -5204,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>63</v>
       </c>
@@ -5218,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>64</v>
       </c>
@@ -5232,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>65</v>
       </c>
@@ -5246,38 +5234,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="J32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J34" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="J36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
-        <v>72</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -5285,19 +5250,16 @@
       <c r="G37">
         <v>0.75</v>
       </c>
-      <c r="J37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -5305,19 +5267,16 @@
       <c r="G38" s="5">
         <v>0.5</v>
       </c>
-      <c r="J38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -5325,16 +5284,13 @@
       <c r="G39" s="5">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -5343,18 +5299,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -5363,18 +5319,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
@@ -5389,12 +5345,12 @@
         <v>6.6079520088655102</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -5409,12 +5365,12 @@
         <v>50.052481882315803</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
@@ -5429,12 +5385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
         <v>45</v>
@@ -5449,12 +5405,12 @@
         <v>37.9858028062012</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
         <v>45</v>
@@ -5474,7 +5430,7 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
         <v>45</v>
@@ -5491,10 +5447,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -5511,10 +5467,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
         <v>45</v>
@@ -5531,10 +5487,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -5551,10 +5507,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -5571,10 +5527,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -5591,10 +5547,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
@@ -5611,7 +5567,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B56" s="4"/>
     </row>
@@ -5620,13 +5576,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G57" s="5">
         <v>7.84</v>
@@ -5637,13 +5593,13 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G58" s="5">
         <v>8.67</v>
@@ -5654,13 +5610,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G59" s="5">
         <v>5.21</v>
@@ -5671,13 +5627,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G60" s="5">
         <v>7.54</v>
@@ -5688,13 +5644,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G61" s="5">
         <v>4.47</v>
@@ -5705,13 +5661,13 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G62" s="5">
         <v>4.62</v>
@@ -5722,13 +5678,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G63" s="5">
         <v>0.23</v>
@@ -5739,13 +5695,13 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G64" s="5">
         <v>19.190000000000001</v>
@@ -5756,13 +5712,13 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" t="s">
         <v>83</v>
       </c>
-      <c r="E65" t="s">
-        <v>87</v>
-      </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G65" s="5">
         <v>7.49</v>
@@ -5773,13 +5729,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" t="s">
         <v>84</v>
-      </c>
-      <c r="E66" t="s">
-        <v>87</v>
-      </c>
-      <c r="F66" t="s">
-        <v>88</v>
       </c>
       <c r="G66" s="5">
         <v>8.3800000000000008</v>
@@ -5787,16 +5743,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E67" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G67" s="5">
         <v>8.67</v>
@@ -5804,16 +5760,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E68" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G68" s="5">
         <v>8.01</v>
@@ -5821,16 +5777,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
         <v>85</v>
       </c>
-      <c r="B69" t="s">
-        <v>89</v>
-      </c>
       <c r="E69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G69" s="5">
         <v>6.15</v>
@@ -5838,16 +5794,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G70" s="5">
         <v>3.97</v>
@@ -5855,16 +5811,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G71" s="5">
         <v>5.7</v>
@@ -5872,16 +5828,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E72" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G72" s="5">
         <v>5.84</v>
@@ -5889,16 +5845,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E73" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G73" s="5">
         <v>0.9</v>
@@ -5906,16 +5862,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E74" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G74" s="5">
         <v>10.77</v>
@@ -5923,16 +5879,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" t="s">
         <v>83</v>
       </c>
-      <c r="E75" t="s">
-        <v>87</v>
-      </c>
       <c r="F75" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G75" s="5">
         <v>7.8</v>
@@ -5940,16 +5896,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" t="s">
+        <v>83</v>
+      </c>
+      <c r="F76" t="s">
         <v>84</v>
-      </c>
-      <c r="E76" t="s">
-        <v>87</v>
-      </c>
-      <c r="F76" t="s">
-        <v>88</v>
       </c>
       <c r="G76" s="5">
         <v>7.8</v>
@@ -5979,7 +5935,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5988,7 +5944,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -6002,15 +5958,15 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -6021,15 +5977,15 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -6040,15 +5996,15 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -6077,13 +6033,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -6094,13 +6050,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -6111,13 +6067,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -6128,13 +6084,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -6145,13 +6101,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -6162,13 +6118,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -6179,13 +6135,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -6196,13 +6152,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -6213,13 +6169,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
         <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -6233,16 +6189,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -6253,16 +6209,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -6273,16 +6229,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -6293,16 +6249,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -6313,16 +6269,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -6333,10 +6289,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -6348,13 +6304,13 @@
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -6365,13 +6321,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
         <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -6382,13 +6338,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -6407,7 +6363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6425,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6445,10 +6401,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -6459,10 +6415,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>70</v>
@@ -6473,10 +6429,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -6490,10 +6446,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -6507,10 +6463,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -6524,10 +6480,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -6541,10 +6497,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -6558,10 +6514,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -6575,10 +6531,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -6592,10 +6548,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -6609,10 +6565,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -6626,10 +6582,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
         <v>114</v>
-      </c>
-      <c r="D15" t="s">
-        <v>118</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -6643,10 +6599,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -6660,10 +6616,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -6677,10 +6633,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -6694,10 +6650,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
         <v>115</v>
-      </c>
-      <c r="D19" t="s">
-        <v>119</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -6711,7 +6667,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -6727,7 +6683,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -6741,10 +6697,10 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -6758,10 +6714,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -6775,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -6792,10 +6748,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -6809,10 +6765,10 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -6826,10 +6782,10 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
         <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>119</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -6865,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -6882,10 +6838,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -6899,10 +6855,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -6916,10 +6872,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -6933,10 +6889,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -6950,10 +6906,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -6967,10 +6923,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -6984,10 +6940,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -7001,10 +6957,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -7018,10 +6974,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -7035,10 +6991,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -7052,10 +7008,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -7069,10 +7025,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -7086,10 +7042,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -7103,10 +7059,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -7120,10 +7076,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -7137,10 +7093,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -7154,10 +7110,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -7171,10 +7127,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -7188,10 +7144,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -7205,10 +7161,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -7222,10 +7178,10 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -7239,10 +7195,10 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -7256,10 +7212,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -7273,10 +7229,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -7290,10 +7246,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -7307,10 +7263,10 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -7324,10 +7280,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -7341,10 +7297,10 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -7358,10 +7314,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -7375,10 +7331,10 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -7392,10 +7348,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -7409,10 +7365,10 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -7426,10 +7382,10 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -7443,10 +7399,10 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -7460,10 +7416,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -7477,10 +7433,10 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -7494,10 +7450,10 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -7511,10 +7467,10 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -7528,10 +7484,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -7545,10 +7501,10 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -7567,7 +7523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M17" activeCellId="1" sqref="A1:C1 M17"/>
     </sheetView>
   </sheetViews>
@@ -7585,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -7605,7 +7561,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
